--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -2599,16 +2599,16 @@
         <v>2.77</v>
       </c>
       <c r="Y19">
-        <v>6.797058823529412</v>
+        <v>6.8</v>
       </c>
       <c r="Z19">
-        <v>4.565882352941177</v>
+        <v>4.57</v>
       </c>
       <c r="AA19">
-        <v>75.55588235294117</v>
+        <v>75.56</v>
       </c>
       <c r="AB19">
-        <v>77.78705882352942</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="AC19">
         <v>1777.82</v>
@@ -2623,7 +2623,7 @@
         <v>14.95</v>
       </c>
       <c r="AG19">
-        <v>75.54823529411766</v>
+        <v>75.55</v>
       </c>
       <c r="AH19">
         <v>9.109999999999999</v>
@@ -2709,16 +2709,16 @@
         <v>2.77</v>
       </c>
       <c r="Y20">
-        <v>6.797058823529412</v>
+        <v>6.8</v>
       </c>
       <c r="Z20">
-        <v>4.565882352941177</v>
+        <v>4.57</v>
       </c>
       <c r="AA20">
-        <v>75.55588235294117</v>
+        <v>75.56</v>
       </c>
       <c r="AB20">
-        <v>77.78705882352942</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="AC20">
         <v>1258.19</v>
@@ -2733,7 +2733,7 @@
         <v>6.9</v>
       </c>
       <c r="AG20">
-        <v>75.54823529411766</v>
+        <v>75.55</v>
       </c>
       <c r="AH20">
         <v>2.8</v>
@@ -2819,16 +2819,16 @@
         <v>2.77</v>
       </c>
       <c r="Y21">
-        <v>6.797058823529412</v>
+        <v>6.8</v>
       </c>
       <c r="Z21">
-        <v>4.565882352941177</v>
+        <v>4.57</v>
       </c>
       <c r="AA21">
-        <v>75.55588235294117</v>
+        <v>75.56</v>
       </c>
       <c r="AB21">
-        <v>77.78705882352942</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="AC21">
         <v>2313.84</v>
@@ -2843,7 +2843,7 @@
         <v>12.01</v>
       </c>
       <c r="AG21">
-        <v>75.54823529411766</v>
+        <v>75.55</v>
       </c>
       <c r="AH21">
         <v>4.24</v>
